--- a/biology/Zoologie/Chouette_(papillon)/Chouette_(papillon).xlsx
+++ b/biology/Zoologie/Chouette_(papillon)/Chouette_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachypasa otus
 La Chouette (Pachypasa otus) est une espèce de lépidoptères (papillons) qui appartient à la famille des Lasiocampidae.
@@ -517,9 +529,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 552, avant l'importation en Europe du ver à soie, la chouette était utilisée, d'une manière similaire, pour produire de la soie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 552, avant l'importation en Europe du ver à soie, la chouette était utilisée, d'une manière similaire, pour produire de la soie.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>P.C. Rougeot, P. Viette, Guide des papillons nocturnes d'Europe et d'Afrique du Nord, Delachaux et Niestlé, Lausanne 1978.</t>
         </is>
